--- a/cogstat/demo_data/Haasz. Answering questions with data Lab Manual/study1_data_photo.xlsx
+++ b/cogstat/demo_data/Haasz. Answering questions with data Lab Manual/study1_data_photo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\OneDrive\Asztali gép\Egyetem\demonstrátori munka\data\Lab 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\OneDrive\Asztali gép\Egyetem\demonstrátori munka\data\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>ord</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>nophoto</t>
   </si>
 </sst>
 </file>
@@ -589,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="AF288" workbookViewId="0">
+      <selection activeCell="AO295" sqref="AO295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,8 +1065,8 @@
       <c r="AI3" s="2">
         <v>1</v>
       </c>
-      <c r="AJ3" s="2">
-        <v>1</v>
+      <c r="AJ3" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK3" s="2">
         <v>0</v>
@@ -1238,8 +1244,8 @@
       <c r="AI4" s="2">
         <v>2</v>
       </c>
-      <c r="AJ4" s="2">
-        <v>1</v>
+      <c r="AJ4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK4" s="2">
         <v>0</v>
@@ -1417,8 +1423,8 @@
       <c r="AI5" s="2">
         <v>5</v>
       </c>
-      <c r="AJ5" s="2">
-        <v>1</v>
+      <c r="AJ5" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK5" s="2">
         <v>0</v>
@@ -1596,8 +1602,8 @@
       <c r="AI6" s="2">
         <v>2</v>
       </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
+      <c r="AJ6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK6" s="2">
         <v>0</v>
@@ -1775,8 +1781,8 @@
       <c r="AI7" s="2">
         <v>5</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
+      <c r="AJ7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK7" s="2">
         <v>0</v>
@@ -1954,8 +1960,8 @@
       <c r="AI8" s="2">
         <v>2</v>
       </c>
-      <c r="AJ8" s="2">
-        <v>0</v>
+      <c r="AJ8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK8" s="2">
         <v>0</v>
@@ -2133,8 +2139,8 @@
       <c r="AI9" s="2">
         <v>5</v>
       </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
+      <c r="AJ9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK9" s="2">
         <v>0</v>
@@ -2312,8 +2318,8 @@
       <c r="AI10" s="2">
         <v>1</v>
       </c>
-      <c r="AJ10" s="2">
-        <v>0</v>
+      <c r="AJ10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK10" s="2">
         <v>0</v>
@@ -2491,8 +2497,8 @@
       <c r="AI11" s="2">
         <v>2</v>
       </c>
-      <c r="AJ11" s="2">
-        <v>0</v>
+      <c r="AJ11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK11" s="2">
         <v>0</v>
@@ -2670,8 +2676,8 @@
       <c r="AI12" s="2">
         <v>1</v>
       </c>
-      <c r="AJ12" s="2">
-        <v>1</v>
+      <c r="AJ12" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK12" s="2">
         <v>0</v>
@@ -2849,8 +2855,8 @@
       <c r="AI13" s="2">
         <v>3</v>
       </c>
-      <c r="AJ13" s="2">
-        <v>1</v>
+      <c r="AJ13" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
@@ -3028,8 +3034,8 @@
       <c r="AI14" s="2">
         <v>5</v>
       </c>
-      <c r="AJ14" s="2">
-        <v>0</v>
+      <c r="AJ14" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK14" s="2">
         <v>0</v>
@@ -3207,8 +3213,8 @@
       <c r="AI15" s="2">
         <v>6</v>
       </c>
-      <c r="AJ15" s="2">
-        <v>1</v>
+      <c r="AJ15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK15" s="2">
         <v>0</v>
@@ -3386,8 +3392,8 @@
       <c r="AI16" s="2">
         <v>5</v>
       </c>
-      <c r="AJ16" s="2">
-        <v>1</v>
+      <c r="AJ16" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK16" s="2">
         <v>0</v>
@@ -3565,8 +3571,8 @@
       <c r="AI17" s="2">
         <v>4</v>
       </c>
-      <c r="AJ17" s="2">
-        <v>1</v>
+      <c r="AJ17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK17" s="2">
         <v>0</v>
@@ -3744,8 +3750,8 @@
       <c r="AI18" s="2">
         <v>2</v>
       </c>
-      <c r="AJ18" s="2">
-        <v>0</v>
+      <c r="AJ18" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK18" s="2">
         <v>0</v>
@@ -3919,8 +3925,8 @@
       <c r="AI19" s="2">
         <v>6</v>
       </c>
-      <c r="AJ19" s="2">
-        <v>1</v>
+      <c r="AJ19" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK19" s="1" t="e">
         <v>#NULL!</v>
@@ -4098,8 +4104,8 @@
       <c r="AI20" s="2">
         <v>2</v>
       </c>
-      <c r="AJ20" s="2">
-        <v>0</v>
+      <c r="AJ20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
@@ -4277,8 +4283,8 @@
       <c r="AI21" s="2">
         <v>6</v>
       </c>
-      <c r="AJ21" s="2">
-        <v>1</v>
+      <c r="AJ21" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK21" s="2">
         <v>0</v>
@@ -4456,8 +4462,8 @@
       <c r="AI22" s="2">
         <v>3</v>
       </c>
-      <c r="AJ22" s="2">
-        <v>0</v>
+      <c r="AJ22" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK22" s="2">
         <v>0</v>
@@ -4635,8 +4641,8 @@
       <c r="AI23" s="2">
         <v>2</v>
       </c>
-      <c r="AJ23" s="2">
-        <v>0</v>
+      <c r="AJ23" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK23" s="2">
         <v>0</v>
@@ -4814,8 +4820,8 @@
       <c r="AI24" s="2">
         <v>5</v>
       </c>
-      <c r="AJ24" s="2">
-        <v>0</v>
+      <c r="AJ24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK24" s="2">
         <v>0</v>
@@ -4993,8 +4999,8 @@
       <c r="AI25" s="2">
         <v>2</v>
       </c>
-      <c r="AJ25" s="2">
-        <v>0</v>
+      <c r="AJ25" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
@@ -5172,8 +5178,8 @@
       <c r="AI26" s="2">
         <v>1</v>
       </c>
-      <c r="AJ26" s="2">
-        <v>1</v>
+      <c r="AJ26" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK26" s="2">
         <v>0</v>
@@ -5351,8 +5357,8 @@
       <c r="AI27" s="2">
         <v>3</v>
       </c>
-      <c r="AJ27" s="2">
-        <v>0</v>
+      <c r="AJ27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK27" s="2">
         <v>0</v>
@@ -5530,8 +5536,8 @@
       <c r="AI28" s="2">
         <v>6</v>
       </c>
-      <c r="AJ28" s="2">
-        <v>0</v>
+      <c r="AJ28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK28" s="2">
         <v>0</v>
@@ -5709,8 +5715,8 @@
       <c r="AI29" s="2">
         <v>3</v>
       </c>
-      <c r="AJ29" s="2">
-        <v>1</v>
+      <c r="AJ29" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK29" s="2">
         <v>0</v>
@@ -5888,8 +5894,8 @@
       <c r="AI30" s="2">
         <v>4</v>
       </c>
-      <c r="AJ30" s="2">
-        <v>0</v>
+      <c r="AJ30" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK30" s="2">
         <v>0</v>
@@ -6067,8 +6073,8 @@
       <c r="AI31" s="2">
         <v>2</v>
       </c>
-      <c r="AJ31" s="2">
-        <v>1</v>
+      <c r="AJ31" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK31" s="2">
         <v>0</v>
@@ -6246,8 +6252,8 @@
       <c r="AI32" s="2">
         <v>4</v>
       </c>
-      <c r="AJ32" s="2">
-        <v>0</v>
+      <c r="AJ32" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK32" s="2">
         <v>0</v>
@@ -6425,8 +6431,8 @@
       <c r="AI33" s="2">
         <v>3</v>
       </c>
-      <c r="AJ33" s="2">
-        <v>0</v>
+      <c r="AJ33" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK33" s="2">
         <v>0</v>
@@ -6604,8 +6610,8 @@
       <c r="AI34" s="2">
         <v>3</v>
       </c>
-      <c r="AJ34" s="2">
-        <v>0</v>
+      <c r="AJ34" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK34" s="2">
         <v>0</v>
@@ -6783,8 +6789,8 @@
       <c r="AI35" s="2">
         <v>1</v>
       </c>
-      <c r="AJ35" s="2">
-        <v>0</v>
+      <c r="AJ35" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK35" s="2">
         <v>0</v>
@@ -6962,8 +6968,8 @@
       <c r="AI36" s="2">
         <v>2</v>
       </c>
-      <c r="AJ36" s="2">
-        <v>1</v>
+      <c r="AJ36" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK36" s="2">
         <v>0</v>
@@ -7141,8 +7147,8 @@
       <c r="AI37" s="2">
         <v>4</v>
       </c>
-      <c r="AJ37" s="2">
-        <v>0</v>
+      <c r="AJ37" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK37" s="2">
         <v>0</v>
@@ -7320,8 +7326,8 @@
       <c r="AI38" s="2">
         <v>5</v>
       </c>
-      <c r="AJ38" s="2">
-        <v>0</v>
+      <c r="AJ38" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK38" s="2">
         <v>0</v>
@@ -7499,8 +7505,8 @@
       <c r="AI39" s="2">
         <v>3</v>
       </c>
-      <c r="AJ39" s="2">
-        <v>0</v>
+      <c r="AJ39" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
@@ -7678,8 +7684,8 @@
       <c r="AI40" s="2">
         <v>6</v>
       </c>
-      <c r="AJ40" s="2">
-        <v>1</v>
+      <c r="AJ40" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK40" s="2">
         <v>0</v>
@@ -7857,8 +7863,8 @@
       <c r="AI41" s="2">
         <v>6</v>
       </c>
-      <c r="AJ41" s="2">
-        <v>0</v>
+      <c r="AJ41" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
@@ -8036,8 +8042,8 @@
       <c r="AI42" s="2">
         <v>5</v>
       </c>
-      <c r="AJ42" s="2">
-        <v>0</v>
+      <c r="AJ42" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK42" s="2">
         <v>0</v>
@@ -8215,8 +8221,8 @@
       <c r="AI43" s="2">
         <v>5</v>
       </c>
-      <c r="AJ43" s="2">
-        <v>0</v>
+      <c r="AJ43" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK43" s="2">
         <v>0</v>
@@ -8394,8 +8400,8 @@
       <c r="AI44" s="2">
         <v>6</v>
       </c>
-      <c r="AJ44" s="2">
-        <v>1</v>
+      <c r="AJ44" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK44" s="2">
         <v>0</v>
@@ -8573,8 +8579,8 @@
       <c r="AI45" s="2">
         <v>1</v>
       </c>
-      <c r="AJ45" s="2">
-        <v>0</v>
+      <c r="AJ45" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK45" s="2">
         <v>0</v>
@@ -8752,8 +8758,8 @@
       <c r="AI46" s="2">
         <v>1</v>
       </c>
-      <c r="AJ46" s="2">
-        <v>1</v>
+      <c r="AJ46" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK46" s="2">
         <v>0</v>
@@ -8931,8 +8937,8 @@
       <c r="AI47" s="2">
         <v>1</v>
       </c>
-      <c r="AJ47" s="2">
-        <v>1</v>
+      <c r="AJ47" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK47" s="2">
         <v>0</v>
@@ -9110,8 +9116,8 @@
       <c r="AI48" s="2">
         <v>1</v>
       </c>
-      <c r="AJ48" s="2">
-        <v>0</v>
+      <c r="AJ48" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK48" s="2">
         <v>0</v>
@@ -9289,8 +9295,8 @@
       <c r="AI49" s="2">
         <v>4</v>
       </c>
-      <c r="AJ49" s="2">
-        <v>0</v>
+      <c r="AJ49" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK49" s="2">
         <v>0</v>
@@ -9468,8 +9474,8 @@
       <c r="AI50" s="2">
         <v>5</v>
       </c>
-      <c r="AJ50" s="2">
-        <v>1</v>
+      <c r="AJ50" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK50" s="2">
         <v>0</v>
@@ -9647,8 +9653,8 @@
       <c r="AI51" s="2">
         <v>5</v>
       </c>
-      <c r="AJ51" s="2">
-        <v>1</v>
+      <c r="AJ51" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK51" s="2">
         <v>0</v>
@@ -9826,8 +9832,8 @@
       <c r="AI52" s="2">
         <v>4</v>
       </c>
-      <c r="AJ52" s="2">
-        <v>0</v>
+      <c r="AJ52" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK52" s="2">
         <v>0</v>
@@ -10005,8 +10011,8 @@
       <c r="AI53" s="2">
         <v>3</v>
       </c>
-      <c r="AJ53" s="2">
-        <v>1</v>
+      <c r="AJ53" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK53" s="2">
         <v>0</v>
@@ -10184,8 +10190,8 @@
       <c r="AI54" s="2">
         <v>2</v>
       </c>
-      <c r="AJ54" s="2">
-        <v>1</v>
+      <c r="AJ54" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK54" s="2">
         <v>0</v>
@@ -10363,8 +10369,8 @@
       <c r="AI55" s="2">
         <v>3</v>
       </c>
-      <c r="AJ55" s="2">
-        <v>1</v>
+      <c r="AJ55" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK55" s="2">
         <v>0</v>
@@ -10542,8 +10548,8 @@
       <c r="AI56" s="2">
         <v>5</v>
       </c>
-      <c r="AJ56" s="2">
-        <v>0</v>
+      <c r="AJ56" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK56" s="2">
         <v>0</v>
@@ -10721,8 +10727,8 @@
       <c r="AI57" s="2">
         <v>6</v>
       </c>
-      <c r="AJ57" s="2">
-        <v>0</v>
+      <c r="AJ57" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK57" s="2">
         <v>0</v>
@@ -10900,8 +10906,8 @@
       <c r="AI58" s="2">
         <v>1</v>
       </c>
-      <c r="AJ58" s="2">
-        <v>1</v>
+      <c r="AJ58" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK58" s="2">
         <v>0</v>
@@ -11079,8 +11085,8 @@
       <c r="AI59" s="2">
         <v>1</v>
       </c>
-      <c r="AJ59" s="2">
-        <v>0</v>
+      <c r="AJ59" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK59" s="2">
         <v>0</v>
@@ -11258,8 +11264,8 @@
       <c r="AI60" s="2">
         <v>2</v>
       </c>
-      <c r="AJ60" s="2">
-        <v>1</v>
+      <c r="AJ60" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK60" s="2">
         <v>0</v>
@@ -11437,8 +11443,8 @@
       <c r="AI61" s="2">
         <v>1</v>
       </c>
-      <c r="AJ61" s="2">
-        <v>0</v>
+      <c r="AJ61" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK61" s="2">
         <v>0</v>
@@ -11616,8 +11622,8 @@
       <c r="AI62" s="2">
         <v>1</v>
       </c>
-      <c r="AJ62" s="2">
-        <v>0</v>
+      <c r="AJ62" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK62" s="2">
         <v>0</v>
@@ -11795,8 +11801,8 @@
       <c r="AI63" s="2">
         <v>6</v>
       </c>
-      <c r="AJ63" s="2">
-        <v>0</v>
+      <c r="AJ63" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK63" s="2">
         <v>0</v>
@@ -11974,8 +11980,8 @@
       <c r="AI64" s="2">
         <v>3</v>
       </c>
-      <c r="AJ64" s="2">
-        <v>1</v>
+      <c r="AJ64" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK64" s="2">
         <v>0</v>
@@ -12153,8 +12159,8 @@
       <c r="AI65" s="2">
         <v>2</v>
       </c>
-      <c r="AJ65" s="2">
-        <v>1</v>
+      <c r="AJ65" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK65" s="2">
         <v>0</v>
@@ -12332,8 +12338,8 @@
       <c r="AI66" s="2">
         <v>3</v>
       </c>
-      <c r="AJ66" s="2">
-        <v>0</v>
+      <c r="AJ66" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK66" s="2">
         <v>0</v>
@@ -12511,8 +12517,8 @@
       <c r="AI67" s="2">
         <v>3</v>
       </c>
-      <c r="AJ67" s="2">
-        <v>0</v>
+      <c r="AJ67" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK67" s="2">
         <v>0</v>
@@ -12690,8 +12696,8 @@
       <c r="AI68" s="2">
         <v>1</v>
       </c>
-      <c r="AJ68" s="2">
-        <v>1</v>
+      <c r="AJ68" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK68" s="2">
         <v>0</v>
@@ -12869,8 +12875,8 @@
       <c r="AI69" s="2">
         <v>6</v>
       </c>
-      <c r="AJ69" s="2">
-        <v>0</v>
+      <c r="AJ69" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK69" s="2">
         <v>0</v>
@@ -13048,8 +13054,8 @@
       <c r="AI70" s="2">
         <v>4</v>
       </c>
-      <c r="AJ70" s="2">
-        <v>0</v>
+      <c r="AJ70" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK70" s="2">
         <v>0</v>
@@ -13227,8 +13233,8 @@
       <c r="AI71" s="2">
         <v>3</v>
       </c>
-      <c r="AJ71" s="2">
-        <v>0</v>
+      <c r="AJ71" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK71" s="2">
         <v>0</v>
@@ -13406,8 +13412,8 @@
       <c r="AI72" s="2">
         <v>2</v>
       </c>
-      <c r="AJ72" s="2">
-        <v>0</v>
+      <c r="AJ72" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK72" s="2">
         <v>0</v>
@@ -13585,8 +13591,8 @@
       <c r="AI73" s="2">
         <v>6</v>
       </c>
-      <c r="AJ73" s="2">
-        <v>1</v>
+      <c r="AJ73" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK73" s="2">
         <v>0</v>
@@ -13764,8 +13770,8 @@
       <c r="AI74" s="2">
         <v>1</v>
       </c>
-      <c r="AJ74" s="2">
-        <v>0</v>
+      <c r="AJ74" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK74" s="2">
         <v>0</v>
@@ -13943,8 +13949,8 @@
       <c r="AI75" s="2">
         <v>4</v>
       </c>
-      <c r="AJ75" s="2">
-        <v>0</v>
+      <c r="AJ75" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK75" s="2">
         <v>0</v>
@@ -14122,8 +14128,8 @@
       <c r="AI76" s="2">
         <v>4</v>
       </c>
-      <c r="AJ76" s="2">
-        <v>1</v>
+      <c r="AJ76" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK76" s="2">
         <v>0</v>
@@ -14301,8 +14307,8 @@
       <c r="AI77" s="2">
         <v>2</v>
       </c>
-      <c r="AJ77" s="2">
-        <v>1</v>
+      <c r="AJ77" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK77" s="2">
         <v>0</v>
@@ -14480,8 +14486,8 @@
       <c r="AI78" s="2">
         <v>1</v>
       </c>
-      <c r="AJ78" s="2">
-        <v>1</v>
+      <c r="AJ78" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK78" s="2">
         <v>0</v>
@@ -14659,8 +14665,8 @@
       <c r="AI79" s="2">
         <v>3</v>
       </c>
-      <c r="AJ79" s="2">
-        <v>1</v>
+      <c r="AJ79" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK79" s="2">
         <v>0</v>
@@ -14838,8 +14844,8 @@
       <c r="AI80" s="2">
         <v>6</v>
       </c>
-      <c r="AJ80" s="2">
-        <v>1</v>
+      <c r="AJ80" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK80" s="2">
         <v>0</v>
@@ -15017,8 +15023,8 @@
       <c r="AI81" s="2">
         <v>2</v>
       </c>
-      <c r="AJ81" s="2">
-        <v>1</v>
+      <c r="AJ81" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK81" s="2">
         <v>0</v>
@@ -15196,8 +15202,8 @@
       <c r="AI82" s="2">
         <v>3</v>
       </c>
-      <c r="AJ82" s="2">
-        <v>0</v>
+      <c r="AJ82" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK82" s="2">
         <v>0</v>
@@ -15375,8 +15381,8 @@
       <c r="AI83" s="2">
         <v>2</v>
       </c>
-      <c r="AJ83" s="2">
-        <v>1</v>
+      <c r="AJ83" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK83" s="2">
         <v>0</v>
@@ -15554,8 +15560,8 @@
       <c r="AI84" s="2">
         <v>4</v>
       </c>
-      <c r="AJ84" s="2">
-        <v>1</v>
+      <c r="AJ84" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK84" s="2">
         <v>0</v>
@@ -15733,8 +15739,8 @@
       <c r="AI85" s="2">
         <v>2</v>
       </c>
-      <c r="AJ85" s="2">
-        <v>0</v>
+      <c r="AJ85" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK85" s="2">
         <v>0</v>
@@ -15912,8 +15918,8 @@
       <c r="AI86" s="2">
         <v>5</v>
       </c>
-      <c r="AJ86" s="2">
-        <v>1</v>
+      <c r="AJ86" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK86" s="2">
         <v>0</v>
@@ -16091,8 +16097,8 @@
       <c r="AI87" s="2">
         <v>3</v>
       </c>
-      <c r="AJ87" s="2">
-        <v>1</v>
+      <c r="AJ87" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK87" s="2">
         <v>0</v>
@@ -16270,8 +16276,8 @@
       <c r="AI88" s="2">
         <v>5</v>
       </c>
-      <c r="AJ88" s="2">
-        <v>0</v>
+      <c r="AJ88" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK88" s="2">
         <v>0</v>
@@ -16449,8 +16455,8 @@
       <c r="AI89" s="2">
         <v>1</v>
       </c>
-      <c r="AJ89" s="2">
-        <v>0</v>
+      <c r="AJ89" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK89" s="2">
         <v>0</v>
@@ -16628,8 +16634,8 @@
       <c r="AI90" s="2">
         <v>5</v>
       </c>
-      <c r="AJ90" s="2">
-        <v>0</v>
+      <c r="AJ90" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK90" s="2">
         <v>0</v>
@@ -16807,8 +16813,8 @@
       <c r="AI91" s="2">
         <v>5</v>
       </c>
-      <c r="AJ91" s="2">
-        <v>0</v>
+      <c r="AJ91" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK91" s="2">
         <v>0</v>
@@ -16982,8 +16988,8 @@
       <c r="AI92" s="2">
         <v>2</v>
       </c>
-      <c r="AJ92" s="2">
-        <v>0</v>
+      <c r="AJ92" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK92" s="2">
         <v>0</v>
@@ -17161,8 +17167,8 @@
       <c r="AI93" s="2">
         <v>2</v>
       </c>
-      <c r="AJ93" s="2">
-        <v>0</v>
+      <c r="AJ93" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK93" s="2">
         <v>0</v>
@@ -17340,8 +17346,8 @@
       <c r="AI94" s="2">
         <v>6</v>
       </c>
-      <c r="AJ94" s="2">
-        <v>0</v>
+      <c r="AJ94" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK94" s="2">
         <v>0</v>
@@ -17519,8 +17525,8 @@
       <c r="AI95" s="2">
         <v>2</v>
       </c>
-      <c r="AJ95" s="2">
-        <v>0</v>
+      <c r="AJ95" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK95" s="2">
         <v>0</v>
@@ -17698,8 +17704,8 @@
       <c r="AI96" s="2">
         <v>6</v>
       </c>
-      <c r="AJ96" s="2">
-        <v>1</v>
+      <c r="AJ96" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK96" s="2">
         <v>0</v>
@@ -17877,8 +17883,8 @@
       <c r="AI97" s="2">
         <v>5</v>
       </c>
-      <c r="AJ97" s="2">
-        <v>1</v>
+      <c r="AJ97" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK97" s="2">
         <v>0</v>
@@ -18056,8 +18062,8 @@
       <c r="AI98" s="2">
         <v>1</v>
       </c>
-      <c r="AJ98" s="2">
-        <v>1</v>
+      <c r="AJ98" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK98" s="2">
         <v>0</v>
@@ -18235,8 +18241,8 @@
       <c r="AI99" s="2">
         <v>6</v>
       </c>
-      <c r="AJ99" s="2">
-        <v>1</v>
+      <c r="AJ99" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK99" s="2">
         <v>0</v>
@@ -18414,8 +18420,8 @@
       <c r="AI100" s="2">
         <v>2</v>
       </c>
-      <c r="AJ100" s="2">
-        <v>1</v>
+      <c r="AJ100" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK100" s="2">
         <v>0</v>
@@ -18593,8 +18599,8 @@
       <c r="AI101" s="2">
         <v>6</v>
       </c>
-      <c r="AJ101" s="2">
-        <v>0</v>
+      <c r="AJ101" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK101" s="2">
         <v>0</v>
@@ -18772,8 +18778,8 @@
       <c r="AI102" s="2">
         <v>2</v>
       </c>
-      <c r="AJ102" s="2">
-        <v>1</v>
+      <c r="AJ102" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK102" s="2">
         <v>0</v>
@@ -18951,8 +18957,8 @@
       <c r="AI103" s="2">
         <v>1</v>
       </c>
-      <c r="AJ103" s="2">
-        <v>1</v>
+      <c r="AJ103" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK103" s="2">
         <v>0</v>
@@ -19130,8 +19136,8 @@
       <c r="AI104" s="2">
         <v>6</v>
       </c>
-      <c r="AJ104" s="2">
-        <v>1</v>
+      <c r="AJ104" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK104" s="2">
         <v>0</v>
@@ -19309,8 +19315,8 @@
       <c r="AI105" s="2">
         <v>1</v>
       </c>
-      <c r="AJ105" s="2">
-        <v>1</v>
+      <c r="AJ105" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK105" s="2">
         <v>0</v>
@@ -19488,8 +19494,8 @@
       <c r="AI106" s="2">
         <v>2</v>
       </c>
-      <c r="AJ106" s="2">
-        <v>1</v>
+      <c r="AJ106" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK106" s="2">
         <v>0</v>
@@ -19667,8 +19673,8 @@
       <c r="AI107" s="2">
         <v>1</v>
       </c>
-      <c r="AJ107" s="2">
-        <v>1</v>
+      <c r="AJ107" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK107" s="2">
         <v>0</v>
@@ -19846,8 +19852,8 @@
       <c r="AI108" s="2">
         <v>5</v>
       </c>
-      <c r="AJ108" s="2">
-        <v>1</v>
+      <c r="AJ108" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK108" s="2">
         <v>0</v>
@@ -20025,8 +20031,8 @@
       <c r="AI109" s="2">
         <v>5</v>
       </c>
-      <c r="AJ109" s="2">
-        <v>1</v>
+      <c r="AJ109" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK109" s="2">
         <v>0</v>
@@ -20204,8 +20210,8 @@
       <c r="AI110" s="2">
         <v>5</v>
       </c>
-      <c r="AJ110" s="2">
-        <v>0</v>
+      <c r="AJ110" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK110" s="2">
         <v>0</v>
@@ -20383,8 +20389,8 @@
       <c r="AI111" s="2">
         <v>3</v>
       </c>
-      <c r="AJ111" s="2">
-        <v>0</v>
+      <c r="AJ111" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK111" s="2">
         <v>0</v>
@@ -20562,8 +20568,8 @@
       <c r="AI112" s="2">
         <v>2</v>
       </c>
-      <c r="AJ112" s="2">
-        <v>0</v>
+      <c r="AJ112" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK112" s="2">
         <v>0</v>
@@ -20741,8 +20747,8 @@
       <c r="AI113" s="2">
         <v>1</v>
       </c>
-      <c r="AJ113" s="2">
-        <v>1</v>
+      <c r="AJ113" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK113" s="2">
         <v>0</v>
@@ -20920,8 +20926,8 @@
       <c r="AI114" s="2">
         <v>6</v>
       </c>
-      <c r="AJ114" s="2">
-        <v>1</v>
+      <c r="AJ114" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK114" s="2">
         <v>0</v>
@@ -21099,8 +21105,8 @@
       <c r="AI115" s="2">
         <v>2</v>
       </c>
-      <c r="AJ115" s="2">
-        <v>1</v>
+      <c r="AJ115" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK115" s="2">
         <v>0</v>
@@ -21278,8 +21284,8 @@
       <c r="AI116" s="2">
         <v>3</v>
       </c>
-      <c r="AJ116" s="2">
-        <v>0</v>
+      <c r="AJ116" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK116" s="2">
         <v>0</v>
@@ -21457,8 +21463,8 @@
       <c r="AI117" s="2">
         <v>4</v>
       </c>
-      <c r="AJ117" s="2">
-        <v>1</v>
+      <c r="AJ117" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK117" s="2">
         <v>0</v>
@@ -21636,8 +21642,8 @@
       <c r="AI118" s="2">
         <v>4</v>
       </c>
-      <c r="AJ118" s="2">
-        <v>1</v>
+      <c r="AJ118" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK118" s="2">
         <v>0</v>
@@ -21815,8 +21821,8 @@
       <c r="AI119" s="2">
         <v>2</v>
       </c>
-      <c r="AJ119" s="2">
-        <v>0</v>
+      <c r="AJ119" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK119" s="2">
         <v>0</v>
@@ -21994,8 +22000,8 @@
       <c r="AI120" s="2">
         <v>3</v>
       </c>
-      <c r="AJ120" s="2">
-        <v>0</v>
+      <c r="AJ120" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK120" s="2">
         <v>0</v>
@@ -22173,8 +22179,8 @@
       <c r="AI121" s="2">
         <v>2</v>
       </c>
-      <c r="AJ121" s="2">
-        <v>1</v>
+      <c r="AJ121" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK121" s="2">
         <v>0</v>
@@ -22352,8 +22358,8 @@
       <c r="AI122" s="2">
         <v>5</v>
       </c>
-      <c r="AJ122" s="2">
-        <v>0</v>
+      <c r="AJ122" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK122" s="2">
         <v>0</v>
@@ -22531,8 +22537,8 @@
       <c r="AI123" s="2">
         <v>1</v>
       </c>
-      <c r="AJ123" s="2">
-        <v>0</v>
+      <c r="AJ123" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK123" s="2">
         <v>0</v>
@@ -22710,8 +22716,8 @@
       <c r="AI124" s="2">
         <v>5</v>
       </c>
-      <c r="AJ124" s="2">
-        <v>1</v>
+      <c r="AJ124" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK124" s="2">
         <v>0</v>
@@ -22889,8 +22895,8 @@
       <c r="AI125" s="2">
         <v>1</v>
       </c>
-      <c r="AJ125" s="2">
-        <v>1</v>
+      <c r="AJ125" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK125" s="2">
         <v>0</v>
@@ -23068,8 +23074,8 @@
       <c r="AI126" s="2">
         <v>5</v>
       </c>
-      <c r="AJ126" s="2">
-        <v>0</v>
+      <c r="AJ126" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK126" s="2">
         <v>0</v>
@@ -23247,8 +23253,8 @@
       <c r="AI127" s="2">
         <v>3</v>
       </c>
-      <c r="AJ127" s="2">
-        <v>0</v>
+      <c r="AJ127" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK127" s="2">
         <v>0</v>
@@ -23426,8 +23432,8 @@
       <c r="AI128" s="2">
         <v>2</v>
       </c>
-      <c r="AJ128" s="2">
-        <v>1</v>
+      <c r="AJ128" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK128" s="2">
         <v>0</v>
@@ -23605,8 +23611,8 @@
       <c r="AI129" s="2">
         <v>2</v>
       </c>
-      <c r="AJ129" s="2">
-        <v>0</v>
+      <c r="AJ129" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK129" s="2">
         <v>0</v>
@@ -23784,8 +23790,8 @@
       <c r="AI130" s="2">
         <v>1</v>
       </c>
-      <c r="AJ130" s="2">
-        <v>0</v>
+      <c r="AJ130" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK130" s="2">
         <v>0</v>
@@ -23963,8 +23969,8 @@
       <c r="AI131" s="2">
         <v>5</v>
       </c>
-      <c r="AJ131" s="2">
-        <v>1</v>
+      <c r="AJ131" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK131" s="2">
         <v>0</v>
@@ -24142,8 +24148,8 @@
       <c r="AI132" s="2">
         <v>5</v>
       </c>
-      <c r="AJ132" s="2">
-        <v>0</v>
+      <c r="AJ132" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK132" s="2">
         <v>0</v>
@@ -24321,8 +24327,8 @@
       <c r="AI133" s="2">
         <v>1</v>
       </c>
-      <c r="AJ133" s="2">
-        <v>0</v>
+      <c r="AJ133" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK133" s="2">
         <v>0</v>
@@ -24500,8 +24506,8 @@
       <c r="AI134" s="2">
         <v>1</v>
       </c>
-      <c r="AJ134" s="2">
-        <v>1</v>
+      <c r="AJ134" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK134" s="2">
         <v>0</v>
@@ -24679,8 +24685,8 @@
       <c r="AI135" s="2">
         <v>5</v>
       </c>
-      <c r="AJ135" s="2">
-        <v>1</v>
+      <c r="AJ135" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK135" s="2">
         <v>0</v>
@@ -24858,8 +24864,8 @@
       <c r="AI136" s="2">
         <v>1</v>
       </c>
-      <c r="AJ136" s="2">
-        <v>1</v>
+      <c r="AJ136" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK136" s="2">
         <v>0</v>
@@ -25037,8 +25043,8 @@
       <c r="AI137" s="2">
         <v>5</v>
       </c>
-      <c r="AJ137" s="2">
-        <v>0</v>
+      <c r="AJ137" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK137" s="2">
         <v>0</v>
@@ -25216,8 +25222,8 @@
       <c r="AI138" s="2">
         <v>3</v>
       </c>
-      <c r="AJ138" s="2">
-        <v>1</v>
+      <c r="AJ138" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK138" s="2">
         <v>0</v>
@@ -25395,8 +25401,8 @@
       <c r="AI139" s="2">
         <v>2</v>
       </c>
-      <c r="AJ139" s="2">
-        <v>1</v>
+      <c r="AJ139" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK139" s="2">
         <v>0</v>
@@ -25574,8 +25580,8 @@
       <c r="AI140" s="2">
         <v>4</v>
       </c>
-      <c r="AJ140" s="2">
-        <v>0</v>
+      <c r="AJ140" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK140" s="2">
         <v>0</v>
@@ -25753,8 +25759,8 @@
       <c r="AI141" s="2">
         <v>3</v>
       </c>
-      <c r="AJ141" s="2">
-        <v>1</v>
+      <c r="AJ141" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK141" s="2">
         <v>0</v>
@@ -25932,8 +25938,8 @@
       <c r="AI142" s="2">
         <v>6</v>
       </c>
-      <c r="AJ142" s="2">
-        <v>1</v>
+      <c r="AJ142" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK142" s="2">
         <v>0</v>
@@ -26111,8 +26117,8 @@
       <c r="AI143" s="2">
         <v>1</v>
       </c>
-      <c r="AJ143" s="2">
-        <v>1</v>
+      <c r="AJ143" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK143" s="2">
         <v>0</v>
@@ -26290,8 +26296,8 @@
       <c r="AI144" s="2">
         <v>5</v>
       </c>
-      <c r="AJ144" s="2">
-        <v>0</v>
+      <c r="AJ144" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK144" s="2">
         <v>0</v>
@@ -26469,8 +26475,8 @@
       <c r="AI145" s="2">
         <v>6</v>
       </c>
-      <c r="AJ145" s="2">
-        <v>1</v>
+      <c r="AJ145" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK145" s="2">
         <v>0</v>
@@ -26648,8 +26654,8 @@
       <c r="AI146" s="2">
         <v>3</v>
       </c>
-      <c r="AJ146" s="2">
-        <v>1</v>
+      <c r="AJ146" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK146" s="2">
         <v>0</v>
@@ -26827,8 +26833,8 @@
       <c r="AI147" s="2">
         <v>3</v>
       </c>
-      <c r="AJ147" s="2">
-        <v>1</v>
+      <c r="AJ147" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK147" s="2">
         <v>0</v>
@@ -27006,8 +27012,8 @@
       <c r="AI148" s="2">
         <v>3</v>
       </c>
-      <c r="AJ148" s="2">
-        <v>1</v>
+      <c r="AJ148" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK148" s="2">
         <v>0</v>
@@ -27185,8 +27191,8 @@
       <c r="AI149" s="2">
         <v>6</v>
       </c>
-      <c r="AJ149" s="2">
-        <v>1</v>
+      <c r="AJ149" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK149" s="2">
         <v>0</v>
@@ -27364,8 +27370,8 @@
       <c r="AI150" s="2">
         <v>5</v>
       </c>
-      <c r="AJ150" s="2">
-        <v>0</v>
+      <c r="AJ150" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK150" s="2">
         <v>0</v>
@@ -27543,8 +27549,8 @@
       <c r="AI151" s="2">
         <v>2</v>
       </c>
-      <c r="AJ151" s="2">
-        <v>0</v>
+      <c r="AJ151" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK151" s="2">
         <v>0</v>
@@ -27722,8 +27728,8 @@
       <c r="AI152" s="2">
         <v>4</v>
       </c>
-      <c r="AJ152" s="2">
-        <v>1</v>
+      <c r="AJ152" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK152" s="2">
         <v>0</v>
@@ -27901,8 +27907,8 @@
       <c r="AI153" s="2">
         <v>1</v>
       </c>
-      <c r="AJ153" s="2">
-        <v>1</v>
+      <c r="AJ153" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK153" s="2">
         <v>0</v>
@@ -28080,8 +28086,8 @@
       <c r="AI154" s="2">
         <v>4</v>
       </c>
-      <c r="AJ154" s="2">
-        <v>1</v>
+      <c r="AJ154" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK154" s="2">
         <v>0</v>
@@ -28259,8 +28265,8 @@
       <c r="AI155" s="2">
         <v>1</v>
       </c>
-      <c r="AJ155" s="2">
-        <v>0</v>
+      <c r="AJ155" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK155" s="2">
         <v>0</v>
@@ -28438,8 +28444,8 @@
       <c r="AI156" s="2">
         <v>3</v>
       </c>
-      <c r="AJ156" s="2">
-        <v>1</v>
+      <c r="AJ156" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK156" s="2">
         <v>0</v>
@@ -28617,8 +28623,8 @@
       <c r="AI157" s="2">
         <v>3</v>
       </c>
-      <c r="AJ157" s="2">
-        <v>0</v>
+      <c r="AJ157" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK157" s="2">
         <v>0</v>
@@ -28796,8 +28802,8 @@
       <c r="AI158" s="2">
         <v>2</v>
       </c>
-      <c r="AJ158" s="2">
-        <v>1</v>
+      <c r="AJ158" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK158" s="2">
         <v>0</v>
@@ -28975,8 +28981,8 @@
       <c r="AI159" s="2">
         <v>1</v>
       </c>
-      <c r="AJ159" s="2">
-        <v>0</v>
+      <c r="AJ159" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK159" s="2">
         <v>0</v>
@@ -29154,8 +29160,8 @@
       <c r="AI160" s="2">
         <v>2</v>
       </c>
-      <c r="AJ160" s="2">
-        <v>1</v>
+      <c r="AJ160" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK160" s="2">
         <v>0</v>
@@ -29333,8 +29339,8 @@
       <c r="AI161" s="2">
         <v>4</v>
       </c>
-      <c r="AJ161" s="2">
-        <v>0</v>
+      <c r="AJ161" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK161" s="2">
         <v>0</v>
@@ -29512,8 +29518,8 @@
       <c r="AI162" s="2">
         <v>3</v>
       </c>
-      <c r="AJ162" s="2">
-        <v>1</v>
+      <c r="AJ162" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK162" s="2">
         <v>0</v>
@@ -29691,8 +29697,8 @@
       <c r="AI163" s="2">
         <v>4</v>
       </c>
-      <c r="AJ163" s="2">
-        <v>1</v>
+      <c r="AJ163" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK163" s="2">
         <v>0</v>
@@ -29870,8 +29876,8 @@
       <c r="AI164" s="2">
         <v>6</v>
       </c>
-      <c r="AJ164" s="2">
-        <v>0</v>
+      <c r="AJ164" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK164" s="2">
         <v>0</v>
@@ -30049,8 +30055,8 @@
       <c r="AI165" s="2">
         <v>4</v>
       </c>
-      <c r="AJ165" s="2">
-        <v>1</v>
+      <c r="AJ165" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK165" s="2">
         <v>0</v>
@@ -30228,8 +30234,8 @@
       <c r="AI166" s="2">
         <v>6</v>
       </c>
-      <c r="AJ166" s="2">
-        <v>1</v>
+      <c r="AJ166" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK166" s="2">
         <v>0</v>
@@ -30407,8 +30413,8 @@
       <c r="AI167" s="2">
         <v>6</v>
       </c>
-      <c r="AJ167" s="2">
-        <v>1</v>
+      <c r="AJ167" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK167" s="2">
         <v>0</v>
@@ -30586,8 +30592,8 @@
       <c r="AI168" s="2">
         <v>5</v>
       </c>
-      <c r="AJ168" s="2">
-        <v>1</v>
+      <c r="AJ168" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK168" s="2">
         <v>0</v>
@@ -30765,8 +30771,8 @@
       <c r="AI169" s="2">
         <v>5</v>
       </c>
-      <c r="AJ169" s="2">
-        <v>0</v>
+      <c r="AJ169" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK169" s="2">
         <v>0</v>
@@ -30944,8 +30950,8 @@
       <c r="AI170" s="2">
         <v>4</v>
       </c>
-      <c r="AJ170" s="2">
-        <v>0</v>
+      <c r="AJ170" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK170" s="2">
         <v>0</v>
@@ -31123,8 +31129,8 @@
       <c r="AI171" s="2">
         <v>6</v>
       </c>
-      <c r="AJ171" s="2">
-        <v>0</v>
+      <c r="AJ171" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK171" s="2">
         <v>0</v>
@@ -31302,8 +31308,8 @@
       <c r="AI172" s="2">
         <v>2</v>
       </c>
-      <c r="AJ172" s="2">
-        <v>0</v>
+      <c r="AJ172" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK172" s="2">
         <v>0</v>
@@ -31481,8 +31487,8 @@
       <c r="AI173" s="2">
         <v>2</v>
       </c>
-      <c r="AJ173" s="2">
-        <v>0</v>
+      <c r="AJ173" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK173" s="2">
         <v>0</v>
@@ -31660,8 +31666,8 @@
       <c r="AI174" s="2">
         <v>4</v>
       </c>
-      <c r="AJ174" s="2">
-        <v>0</v>
+      <c r="AJ174" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK174" s="2">
         <v>0</v>
@@ -31839,8 +31845,8 @@
       <c r="AI175" s="2">
         <v>1</v>
       </c>
-      <c r="AJ175" s="2">
-        <v>0</v>
+      <c r="AJ175" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK175" s="2">
         <v>0</v>
@@ -32018,8 +32024,8 @@
       <c r="AI176" s="2">
         <v>5</v>
       </c>
-      <c r="AJ176" s="2">
-        <v>1</v>
+      <c r="AJ176" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK176" s="2">
         <v>0</v>
@@ -32197,8 +32203,8 @@
       <c r="AI177" s="2">
         <v>6</v>
       </c>
-      <c r="AJ177" s="2">
-        <v>1</v>
+      <c r="AJ177" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK177" s="2">
         <v>0</v>
@@ -32376,8 +32382,8 @@
       <c r="AI178" s="2">
         <v>6</v>
       </c>
-      <c r="AJ178" s="2">
-        <v>0</v>
+      <c r="AJ178" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK178" s="2">
         <v>0</v>
@@ -32555,8 +32561,8 @@
       <c r="AI179" s="2">
         <v>1</v>
       </c>
-      <c r="AJ179" s="2">
-        <v>1</v>
+      <c r="AJ179" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK179" s="2">
         <v>0</v>
@@ -32734,8 +32740,8 @@
       <c r="AI180" s="2">
         <v>2</v>
       </c>
-      <c r="AJ180" s="2">
-        <v>0</v>
+      <c r="AJ180" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK180" s="2">
         <v>0</v>
@@ -32913,8 +32919,8 @@
       <c r="AI181" s="2">
         <v>4</v>
       </c>
-      <c r="AJ181" s="2">
-        <v>0</v>
+      <c r="AJ181" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK181" s="2">
         <v>0</v>
@@ -33092,8 +33098,8 @@
       <c r="AI182" s="2">
         <v>5</v>
       </c>
-      <c r="AJ182" s="2">
-        <v>1</v>
+      <c r="AJ182" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK182" s="2">
         <v>0</v>
@@ -33271,8 +33277,8 @@
       <c r="AI183" s="2">
         <v>1</v>
       </c>
-      <c r="AJ183" s="2">
-        <v>1</v>
+      <c r="AJ183" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK183" s="2">
         <v>0</v>
@@ -33450,8 +33456,8 @@
       <c r="AI184" s="2">
         <v>4</v>
       </c>
-      <c r="AJ184" s="2">
-        <v>0</v>
+      <c r="AJ184" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK184" s="2">
         <v>0</v>
@@ -33629,8 +33635,8 @@
       <c r="AI185" s="2">
         <v>4</v>
       </c>
-      <c r="AJ185" s="2">
-        <v>1</v>
+      <c r="AJ185" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK185" s="2">
         <v>0</v>
@@ -33808,8 +33814,8 @@
       <c r="AI186" s="2">
         <v>2</v>
       </c>
-      <c r="AJ186" s="2">
-        <v>0</v>
+      <c r="AJ186" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK186" s="2">
         <v>0</v>
@@ -33987,8 +33993,8 @@
       <c r="AI187" s="2">
         <v>2</v>
       </c>
-      <c r="AJ187" s="2">
-        <v>1</v>
+      <c r="AJ187" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK187" s="2">
         <v>0</v>
@@ -34166,8 +34172,8 @@
       <c r="AI188" s="2">
         <v>4</v>
       </c>
-      <c r="AJ188" s="2">
-        <v>1</v>
+      <c r="AJ188" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK188" s="2">
         <v>0</v>
@@ -34345,8 +34351,8 @@
       <c r="AI189" s="2">
         <v>1</v>
       </c>
-      <c r="AJ189" s="2">
-        <v>1</v>
+      <c r="AJ189" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK189" s="2">
         <v>0</v>
@@ -34524,8 +34530,8 @@
       <c r="AI190" s="2">
         <v>2</v>
       </c>
-      <c r="AJ190" s="2">
-        <v>0</v>
+      <c r="AJ190" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK190" s="2">
         <v>0</v>
@@ -34703,8 +34709,8 @@
       <c r="AI191" s="2">
         <v>3</v>
       </c>
-      <c r="AJ191" s="2">
-        <v>1</v>
+      <c r="AJ191" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK191" s="2">
         <v>0</v>
@@ -34882,8 +34888,8 @@
       <c r="AI192" s="2">
         <v>4</v>
       </c>
-      <c r="AJ192" s="2">
-        <v>0</v>
+      <c r="AJ192" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK192" s="2">
         <v>0</v>
@@ -35061,8 +35067,8 @@
       <c r="AI193" s="2">
         <v>1</v>
       </c>
-      <c r="AJ193" s="2">
-        <v>1</v>
+      <c r="AJ193" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK193" s="2">
         <v>0</v>
@@ -35240,8 +35246,8 @@
       <c r="AI194" s="2">
         <v>5</v>
       </c>
-      <c r="AJ194" s="2">
-        <v>1</v>
+      <c r="AJ194" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK194" s="2">
         <v>0</v>
@@ -35419,8 +35425,8 @@
       <c r="AI195" s="2">
         <v>1</v>
       </c>
-      <c r="AJ195" s="2">
-        <v>0</v>
+      <c r="AJ195" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK195" s="2">
         <v>0</v>
@@ -35598,8 +35604,8 @@
       <c r="AI196" s="2">
         <v>3</v>
       </c>
-      <c r="AJ196" s="2">
-        <v>1</v>
+      <c r="AJ196" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK196" s="2">
         <v>0</v>
@@ -35777,8 +35783,8 @@
       <c r="AI197" s="2">
         <v>6</v>
       </c>
-      <c r="AJ197" s="2">
-        <v>1</v>
+      <c r="AJ197" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK197" s="2">
         <v>0</v>
@@ -35956,8 +35962,8 @@
       <c r="AI198" s="2">
         <v>4</v>
       </c>
-      <c r="AJ198" s="2">
-        <v>0</v>
+      <c r="AJ198" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK198" s="2">
         <v>0</v>
@@ -36135,8 +36141,8 @@
       <c r="AI199" s="2">
         <v>4</v>
       </c>
-      <c r="AJ199" s="2">
-        <v>0</v>
+      <c r="AJ199" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK199" s="2">
         <v>0</v>
@@ -36314,8 +36320,8 @@
       <c r="AI200" s="2">
         <v>1</v>
       </c>
-      <c r="AJ200" s="2">
-        <v>1</v>
+      <c r="AJ200" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK200" s="2">
         <v>0</v>
@@ -36493,8 +36499,8 @@
       <c r="AI201" s="2">
         <v>4</v>
       </c>
-      <c r="AJ201" s="2">
-        <v>1</v>
+      <c r="AJ201" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK201" s="2">
         <v>0</v>
@@ -36672,8 +36678,8 @@
       <c r="AI202" s="2">
         <v>3</v>
       </c>
-      <c r="AJ202" s="2">
-        <v>1</v>
+      <c r="AJ202" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK202" s="2">
         <v>0</v>
@@ -36851,8 +36857,8 @@
       <c r="AI203" s="2">
         <v>6</v>
       </c>
-      <c r="AJ203" s="2">
-        <v>0</v>
+      <c r="AJ203" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK203" s="2">
         <v>0</v>
@@ -37030,8 +37036,8 @@
       <c r="AI204" s="2">
         <v>4</v>
       </c>
-      <c r="AJ204" s="2">
-        <v>1</v>
+      <c r="AJ204" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK204" s="2">
         <v>0</v>
@@ -37209,8 +37215,8 @@
       <c r="AI205" s="2">
         <v>5</v>
       </c>
-      <c r="AJ205" s="2">
-        <v>1</v>
+      <c r="AJ205" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK205" s="2">
         <v>0</v>
@@ -37388,8 +37394,8 @@
       <c r="AI206" s="2">
         <v>2</v>
       </c>
-      <c r="AJ206" s="2">
-        <v>1</v>
+      <c r="AJ206" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK206" s="2">
         <v>0</v>
@@ -37567,8 +37573,8 @@
       <c r="AI207" s="2">
         <v>6</v>
       </c>
-      <c r="AJ207" s="2">
-        <v>1</v>
+      <c r="AJ207" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK207" s="2">
         <v>0</v>
@@ -37746,8 +37752,8 @@
       <c r="AI208" s="2">
         <v>1</v>
       </c>
-      <c r="AJ208" s="2">
-        <v>0</v>
+      <c r="AJ208" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK208" s="2">
         <v>0</v>
@@ -37925,8 +37931,8 @@
       <c r="AI209" s="2">
         <v>2</v>
       </c>
-      <c r="AJ209" s="2">
-        <v>0</v>
+      <c r="AJ209" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK209" s="2">
         <v>0</v>
@@ -38104,8 +38110,8 @@
       <c r="AI210" s="2">
         <v>5</v>
       </c>
-      <c r="AJ210" s="2">
-        <v>0</v>
+      <c r="AJ210" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK210" s="2">
         <v>0</v>
@@ -38283,8 +38289,8 @@
       <c r="AI211" s="2">
         <v>5</v>
       </c>
-      <c r="AJ211" s="2">
-        <v>1</v>
+      <c r="AJ211" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK211" s="2">
         <v>0</v>
@@ -38462,8 +38468,8 @@
       <c r="AI212" s="2">
         <v>1</v>
       </c>
-      <c r="AJ212" s="2">
-        <v>0</v>
+      <c r="AJ212" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK212" s="2">
         <v>0</v>
@@ -38641,8 +38647,8 @@
       <c r="AI213" s="2">
         <v>1</v>
       </c>
-      <c r="AJ213" s="2">
-        <v>0</v>
+      <c r="AJ213" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK213" s="2">
         <v>0</v>
@@ -38820,8 +38826,8 @@
       <c r="AI214" s="2">
         <v>3</v>
       </c>
-      <c r="AJ214" s="2">
-        <v>1</v>
+      <c r="AJ214" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK214" s="2">
         <v>0</v>
@@ -38999,8 +39005,8 @@
       <c r="AI215" s="2">
         <v>1</v>
       </c>
-      <c r="AJ215" s="2">
-        <v>0</v>
+      <c r="AJ215" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK215" s="2">
         <v>0</v>
@@ -39178,8 +39184,8 @@
       <c r="AI216" s="2">
         <v>6</v>
       </c>
-      <c r="AJ216" s="2">
-        <v>0</v>
+      <c r="AJ216" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK216" s="2">
         <v>0</v>
@@ -39357,8 +39363,8 @@
       <c r="AI217" s="2">
         <v>1</v>
       </c>
-      <c r="AJ217" s="2">
-        <v>0</v>
+      <c r="AJ217" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK217" s="2">
         <v>0</v>
@@ -39536,8 +39542,8 @@
       <c r="AI218" s="2">
         <v>2</v>
       </c>
-      <c r="AJ218" s="2">
-        <v>0</v>
+      <c r="AJ218" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK218" s="2">
         <v>0</v>
@@ -39715,8 +39721,8 @@
       <c r="AI219" s="2">
         <v>1</v>
       </c>
-      <c r="AJ219" s="2">
-        <v>0</v>
+      <c r="AJ219" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK219" s="2">
         <v>0</v>
@@ -39894,8 +39900,8 @@
       <c r="AI220" s="2">
         <v>2</v>
       </c>
-      <c r="AJ220" s="2">
-        <v>0</v>
+      <c r="AJ220" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK220" s="2">
         <v>0</v>
@@ -40073,8 +40079,8 @@
       <c r="AI221" s="2">
         <v>4</v>
       </c>
-      <c r="AJ221" s="2">
-        <v>0</v>
+      <c r="AJ221" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK221" s="2">
         <v>0</v>
@@ -40252,8 +40258,8 @@
       <c r="AI222" s="2">
         <v>5</v>
       </c>
-      <c r="AJ222" s="2">
-        <v>0</v>
+      <c r="AJ222" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK222" s="2">
         <v>0</v>
@@ -40431,8 +40437,8 @@
       <c r="AI223" s="2">
         <v>3</v>
       </c>
-      <c r="AJ223" s="2">
-        <v>1</v>
+      <c r="AJ223" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK223" s="2">
         <v>0</v>
@@ -40610,8 +40616,8 @@
       <c r="AI224" s="2">
         <v>1</v>
       </c>
-      <c r="AJ224" s="2">
-        <v>0</v>
+      <c r="AJ224" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK224" s="2">
         <v>0</v>
@@ -40789,8 +40795,8 @@
       <c r="AI225" s="2">
         <v>1</v>
       </c>
-      <c r="AJ225" s="2">
-        <v>1</v>
+      <c r="AJ225" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK225" s="2">
         <v>0</v>
@@ -40968,8 +40974,8 @@
       <c r="AI226" s="2">
         <v>6</v>
       </c>
-      <c r="AJ226" s="2">
-        <v>1</v>
+      <c r="AJ226" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK226" s="2">
         <v>0</v>
@@ -41147,8 +41153,8 @@
       <c r="AI227" s="2">
         <v>4</v>
       </c>
-      <c r="AJ227" s="2">
-        <v>0</v>
+      <c r="AJ227" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK227" s="2">
         <v>0</v>
@@ -41326,8 +41332,8 @@
       <c r="AI228" s="2">
         <v>2</v>
       </c>
-      <c r="AJ228" s="2">
-        <v>0</v>
+      <c r="AJ228" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK228" s="2">
         <v>0</v>
@@ -41505,8 +41511,8 @@
       <c r="AI229" s="2">
         <v>1</v>
       </c>
-      <c r="AJ229" s="2">
-        <v>1</v>
+      <c r="AJ229" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK229" s="2">
         <v>0</v>
@@ -41684,8 +41690,8 @@
       <c r="AI230" s="2">
         <v>5</v>
       </c>
-      <c r="AJ230" s="2">
-        <v>1</v>
+      <c r="AJ230" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK230" s="2">
         <v>0</v>
@@ -41863,8 +41869,8 @@
       <c r="AI231" s="2">
         <v>2</v>
       </c>
-      <c r="AJ231" s="2">
-        <v>1</v>
+      <c r="AJ231" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK231" s="2">
         <v>0</v>
@@ -42042,8 +42048,8 @@
       <c r="AI232" s="2">
         <v>4</v>
       </c>
-      <c r="AJ232" s="2">
-        <v>1</v>
+      <c r="AJ232" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK232" s="2">
         <v>0</v>
@@ -42221,8 +42227,8 @@
       <c r="AI233" s="2">
         <v>6</v>
       </c>
-      <c r="AJ233" s="2">
-        <v>0</v>
+      <c r="AJ233" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK233" s="2">
         <v>0</v>
@@ -42400,8 +42406,8 @@
       <c r="AI234" s="2">
         <v>4</v>
       </c>
-      <c r="AJ234" s="2">
-        <v>1</v>
+      <c r="AJ234" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK234" s="2">
         <v>0</v>
@@ -42579,8 +42585,8 @@
       <c r="AI235" s="2">
         <v>4</v>
       </c>
-      <c r="AJ235" s="2">
-        <v>0</v>
+      <c r="AJ235" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK235" s="2">
         <v>0</v>
@@ -42758,8 +42764,8 @@
       <c r="AI236" s="2">
         <v>1</v>
       </c>
-      <c r="AJ236" s="2">
-        <v>0</v>
+      <c r="AJ236" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK236" s="2">
         <v>0</v>
@@ -42937,8 +42943,8 @@
       <c r="AI237" s="2">
         <v>1</v>
       </c>
-      <c r="AJ237" s="2">
-        <v>0</v>
+      <c r="AJ237" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK237" s="2">
         <v>0</v>
@@ -43116,8 +43122,8 @@
       <c r="AI238" s="2">
         <v>1</v>
       </c>
-      <c r="AJ238" s="2">
-        <v>1</v>
+      <c r="AJ238" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK238" s="2">
         <v>0</v>
@@ -43295,8 +43301,8 @@
       <c r="AI239" s="2">
         <v>1</v>
       </c>
-      <c r="AJ239" s="2">
-        <v>1</v>
+      <c r="AJ239" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK239" s="2">
         <v>0</v>
@@ -43474,8 +43480,8 @@
       <c r="AI240" s="2">
         <v>2</v>
       </c>
-      <c r="AJ240" s="2">
-        <v>1</v>
+      <c r="AJ240" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK240" s="2">
         <v>0</v>
@@ -43653,8 +43659,8 @@
       <c r="AI241" s="2">
         <v>5</v>
       </c>
-      <c r="AJ241" s="2">
-        <v>0</v>
+      <c r="AJ241" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK241" s="2">
         <v>0</v>
@@ -43832,8 +43838,8 @@
       <c r="AI242" s="2">
         <v>2</v>
       </c>
-      <c r="AJ242" s="2">
-        <v>1</v>
+      <c r="AJ242" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK242" s="2">
         <v>0</v>
@@ -44011,8 +44017,8 @@
       <c r="AI243" s="2">
         <v>1</v>
       </c>
-      <c r="AJ243" s="2">
-        <v>1</v>
+      <c r="AJ243" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK243" s="2">
         <v>0</v>
@@ -44190,8 +44196,8 @@
       <c r="AI244" s="2">
         <v>5</v>
       </c>
-      <c r="AJ244" s="2">
-        <v>0</v>
+      <c r="AJ244" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK244" s="2">
         <v>0</v>
@@ -44369,8 +44375,8 @@
       <c r="AI245" s="2">
         <v>4</v>
       </c>
-      <c r="AJ245" s="2">
-        <v>1</v>
+      <c r="AJ245" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK245" s="2">
         <v>0</v>
@@ -44548,8 +44554,8 @@
       <c r="AI246" s="2">
         <v>6</v>
       </c>
-      <c r="AJ246" s="2">
-        <v>0</v>
+      <c r="AJ246" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK246" s="2">
         <v>0</v>
@@ -44727,8 +44733,8 @@
       <c r="AI247" s="2">
         <v>6</v>
       </c>
-      <c r="AJ247" s="2">
-        <v>0</v>
+      <c r="AJ247" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK247" s="2">
         <v>0</v>
@@ -44906,8 +44912,8 @@
       <c r="AI248" s="2">
         <v>1</v>
       </c>
-      <c r="AJ248" s="2">
-        <v>0</v>
+      <c r="AJ248" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK248" s="2">
         <v>0</v>
@@ -45085,8 +45091,8 @@
       <c r="AI249" s="2">
         <v>4</v>
       </c>
-      <c r="AJ249" s="2">
-        <v>0</v>
+      <c r="AJ249" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK249" s="2">
         <v>0</v>
@@ -45264,8 +45270,8 @@
       <c r="AI250" s="2">
         <v>2</v>
       </c>
-      <c r="AJ250" s="2">
-        <v>0</v>
+      <c r="AJ250" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK250" s="2">
         <v>0</v>
@@ -45443,8 +45449,8 @@
       <c r="AI251" s="2">
         <v>5</v>
       </c>
-      <c r="AJ251" s="2">
-        <v>0</v>
+      <c r="AJ251" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK251" s="2">
         <v>0</v>
@@ -45622,8 +45628,8 @@
       <c r="AI252" s="2">
         <v>3</v>
       </c>
-      <c r="AJ252" s="2">
-        <v>0</v>
+      <c r="AJ252" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK252" s="2">
         <v>0</v>
@@ -45801,8 +45807,8 @@
       <c r="AI253" s="2">
         <v>6</v>
       </c>
-      <c r="AJ253" s="2">
-        <v>0</v>
+      <c r="AJ253" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK253" s="2">
         <v>0</v>
@@ -45980,8 +45986,8 @@
       <c r="AI254" s="2">
         <v>5</v>
       </c>
-      <c r="AJ254" s="2">
-        <v>0</v>
+      <c r="AJ254" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK254" s="2">
         <v>0</v>
@@ -46159,8 +46165,8 @@
       <c r="AI255" s="2">
         <v>5</v>
       </c>
-      <c r="AJ255" s="2">
-        <v>0</v>
+      <c r="AJ255" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK255" s="2">
         <v>0</v>
@@ -46338,8 +46344,8 @@
       <c r="AI256" s="2">
         <v>4</v>
       </c>
-      <c r="AJ256" s="2">
-        <v>0</v>
+      <c r="AJ256" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK256" s="2">
         <v>0</v>
@@ -46517,8 +46523,8 @@
       <c r="AI257" s="2">
         <v>5</v>
       </c>
-      <c r="AJ257" s="2">
-        <v>1</v>
+      <c r="AJ257" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK257" s="2">
         <v>0</v>
@@ -46696,8 +46702,8 @@
       <c r="AI258" s="2">
         <v>6</v>
       </c>
-      <c r="AJ258" s="2">
-        <v>0</v>
+      <c r="AJ258" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK258" s="2">
         <v>0</v>
@@ -46875,8 +46881,8 @@
       <c r="AI259" s="2">
         <v>1</v>
       </c>
-      <c r="AJ259" s="2">
-        <v>1</v>
+      <c r="AJ259" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK259" s="2">
         <v>0</v>
@@ -47054,8 +47060,8 @@
       <c r="AI260" s="2">
         <v>4</v>
       </c>
-      <c r="AJ260" s="2">
-        <v>1</v>
+      <c r="AJ260" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK260" s="2">
         <v>0</v>
@@ -47233,8 +47239,8 @@
       <c r="AI261" s="2">
         <v>2</v>
       </c>
-      <c r="AJ261" s="2">
-        <v>1</v>
+      <c r="AJ261" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK261" s="2">
         <v>0</v>
@@ -47412,8 +47418,8 @@
       <c r="AI262" s="2">
         <v>6</v>
       </c>
-      <c r="AJ262" s="2">
-        <v>1</v>
+      <c r="AJ262" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK262" s="2">
         <v>0</v>
@@ -47591,8 +47597,8 @@
       <c r="AI263" s="2">
         <v>3</v>
       </c>
-      <c r="AJ263" s="2">
-        <v>1</v>
+      <c r="AJ263" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK263" s="2">
         <v>0</v>
@@ -47770,8 +47776,8 @@
       <c r="AI264" s="2">
         <v>2</v>
       </c>
-      <c r="AJ264" s="2">
-        <v>0</v>
+      <c r="AJ264" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK264" s="2">
         <v>0</v>
@@ -47949,8 +47955,8 @@
       <c r="AI265" s="2">
         <v>1</v>
       </c>
-      <c r="AJ265" s="2">
-        <v>0</v>
+      <c r="AJ265" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK265" s="2">
         <v>0</v>
@@ -48128,8 +48134,8 @@
       <c r="AI266" s="2">
         <v>1</v>
       </c>
-      <c r="AJ266" s="2">
-        <v>0</v>
+      <c r="AJ266" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK266" s="2">
         <v>0</v>
@@ -48307,8 +48313,8 @@
       <c r="AI267" s="2">
         <v>5</v>
       </c>
-      <c r="AJ267" s="2">
-        <v>1</v>
+      <c r="AJ267" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK267" s="2">
         <v>0</v>
@@ -48486,8 +48492,8 @@
       <c r="AI268" s="2">
         <v>4</v>
       </c>
-      <c r="AJ268" s="2">
-        <v>1</v>
+      <c r="AJ268" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK268" s="2">
         <v>0</v>
@@ -48665,8 +48671,8 @@
       <c r="AI269" s="2">
         <v>3</v>
       </c>
-      <c r="AJ269" s="2">
-        <v>1</v>
+      <c r="AJ269" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK269" s="2">
         <v>0</v>
@@ -48844,8 +48850,8 @@
       <c r="AI270" s="2">
         <v>4</v>
       </c>
-      <c r="AJ270" s="2">
-        <v>1</v>
+      <c r="AJ270" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK270" s="2">
         <v>0</v>
@@ -49023,8 +49029,8 @@
       <c r="AI271" s="2">
         <v>3</v>
       </c>
-      <c r="AJ271" s="2">
-        <v>1</v>
+      <c r="AJ271" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK271" s="2">
         <v>0</v>
@@ -49202,8 +49208,8 @@
       <c r="AI272" s="2">
         <v>5</v>
       </c>
-      <c r="AJ272" s="2">
-        <v>1</v>
+      <c r="AJ272" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK272" s="2">
         <v>0</v>
@@ -49381,8 +49387,8 @@
       <c r="AI273" s="2">
         <v>5</v>
       </c>
-      <c r="AJ273" s="2">
-        <v>0</v>
+      <c r="AJ273" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK273" s="2">
         <v>0</v>
@@ -49560,8 +49566,8 @@
       <c r="AI274" s="2">
         <v>3</v>
       </c>
-      <c r="AJ274" s="2">
-        <v>1</v>
+      <c r="AJ274" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK274" s="2">
         <v>0</v>
@@ -49739,8 +49745,8 @@
       <c r="AI275" s="2">
         <v>5</v>
       </c>
-      <c r="AJ275" s="2">
-        <v>0</v>
+      <c r="AJ275" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK275" s="2">
         <v>0</v>
@@ -49918,8 +49924,8 @@
       <c r="AI276" s="2">
         <v>2</v>
       </c>
-      <c r="AJ276" s="2">
-        <v>1</v>
+      <c r="AJ276" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK276" s="2">
         <v>0</v>
@@ -50097,8 +50103,8 @@
       <c r="AI277" s="2">
         <v>4</v>
       </c>
-      <c r="AJ277" s="2">
-        <v>0</v>
+      <c r="AJ277" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK277" s="2">
         <v>0</v>
@@ -50276,8 +50282,8 @@
       <c r="AI278" s="2">
         <v>3</v>
       </c>
-      <c r="AJ278" s="2">
-        <v>0</v>
+      <c r="AJ278" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK278" s="2">
         <v>0</v>
@@ -50455,8 +50461,8 @@
       <c r="AI279" s="2">
         <v>6</v>
       </c>
-      <c r="AJ279" s="2">
-        <v>1</v>
+      <c r="AJ279" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK279" s="2">
         <v>0</v>
@@ -50634,8 +50640,8 @@
       <c r="AI280" s="2">
         <v>5</v>
       </c>
-      <c r="AJ280" s="2">
-        <v>1</v>
+      <c r="AJ280" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK280" s="2">
         <v>0</v>
@@ -50813,8 +50819,8 @@
       <c r="AI281" s="2">
         <v>6</v>
       </c>
-      <c r="AJ281" s="2">
-        <v>0</v>
+      <c r="AJ281" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK281" s="2">
         <v>0</v>
@@ -50992,8 +50998,8 @@
       <c r="AI282" s="2">
         <v>6</v>
       </c>
-      <c r="AJ282" s="2">
-        <v>1</v>
+      <c r="AJ282" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK282" s="2">
         <v>0</v>
@@ -51171,8 +51177,8 @@
       <c r="AI283" s="2">
         <v>5</v>
       </c>
-      <c r="AJ283" s="2">
-        <v>0</v>
+      <c r="AJ283" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK283" s="2">
         <v>0</v>
@@ -51350,8 +51356,8 @@
       <c r="AI284" s="2">
         <v>5</v>
       </c>
-      <c r="AJ284" s="2">
-        <v>0</v>
+      <c r="AJ284" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK284" s="2">
         <v>0</v>
@@ -51529,8 +51535,8 @@
       <c r="AI285" s="2">
         <v>5</v>
       </c>
-      <c r="AJ285" s="2">
-        <v>1</v>
+      <c r="AJ285" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK285" s="2">
         <v>0</v>
@@ -51708,8 +51714,8 @@
       <c r="AI286" s="2">
         <v>6</v>
       </c>
-      <c r="AJ286" s="2">
-        <v>1</v>
+      <c r="AJ286" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK286" s="2">
         <v>0</v>
@@ -51887,8 +51893,8 @@
       <c r="AI287" s="2">
         <v>6</v>
       </c>
-      <c r="AJ287" s="2">
-        <v>1</v>
+      <c r="AJ287" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK287" s="2">
         <v>0</v>
@@ -52066,8 +52072,8 @@
       <c r="AI288" s="2">
         <v>6</v>
       </c>
-      <c r="AJ288" s="2">
-        <v>1</v>
+      <c r="AJ288" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK288" s="2">
         <v>0</v>
@@ -52245,8 +52251,8 @@
       <c r="AI289" s="2">
         <v>6</v>
       </c>
-      <c r="AJ289" s="2">
-        <v>0</v>
+      <c r="AJ289" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK289" s="2">
         <v>0</v>
@@ -52424,8 +52430,8 @@
       <c r="AI290" s="2">
         <v>6</v>
       </c>
-      <c r="AJ290" s="2">
-        <v>1</v>
+      <c r="AJ290" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK290" s="2">
         <v>0</v>
@@ -52603,8 +52609,8 @@
       <c r="AI291" s="2">
         <v>5</v>
       </c>
-      <c r="AJ291" s="2">
-        <v>0</v>
+      <c r="AJ291" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK291" s="2">
         <v>0</v>
@@ -52782,8 +52788,8 @@
       <c r="AI292" s="2">
         <v>6</v>
       </c>
-      <c r="AJ292" s="2">
-        <v>0</v>
+      <c r="AJ292" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK292" s="2">
         <v>0</v>
@@ -52961,8 +52967,8 @@
       <c r="AI293" s="2">
         <v>6</v>
       </c>
-      <c r="AJ293" s="2">
-        <v>0</v>
+      <c r="AJ293" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK293" s="2">
         <v>0</v>
@@ -53140,8 +53146,8 @@
       <c r="AI294" s="2">
         <v>6</v>
       </c>
-      <c r="AJ294" s="2">
-        <v>1</v>
+      <c r="AJ294" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK294" s="2">
         <v>0</v>
@@ -53319,8 +53325,8 @@
       <c r="AI295" s="2">
         <v>6</v>
       </c>
-      <c r="AJ295" s="2">
-        <v>0</v>
+      <c r="AJ295" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK295" s="2">
         <v>0</v>
@@ -53498,8 +53504,8 @@
       <c r="AI296" s="2">
         <v>1</v>
       </c>
-      <c r="AJ296" s="2">
-        <v>0</v>
+      <c r="AJ296" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK296" s="2">
         <v>0</v>
@@ -53677,8 +53683,8 @@
       <c r="AI297" s="2">
         <v>1</v>
       </c>
-      <c r="AJ297" s="2">
-        <v>0</v>
+      <c r="AJ297" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK297" s="2">
         <v>0</v>
@@ -53856,8 +53862,8 @@
       <c r="AI298" s="2">
         <v>4</v>
       </c>
-      <c r="AJ298" s="2">
-        <v>0</v>
+      <c r="AJ298" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AK298" s="2">
         <v>0</v>
@@ -54035,8 +54041,8 @@
       <c r="AI299" s="2">
         <v>5</v>
       </c>
-      <c r="AJ299" s="2">
-        <v>1</v>
+      <c r="AJ299" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AK299" s="2">
         <v>0</v>
